--- a/trajectory_random_walk.xlsx
+++ b/trajectory_random_walk.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,10 +410,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
         <v>44</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -619,13 +619,123 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>39</v>
       </c>
-      <c r="C22">
-        <v>0.4683544303797468</v>
+      <c r="B32">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
